--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Ingresos Causas Por Materia_2018-Diciembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Ingresos Causas Por Materia_2018-Diciembre.xlsx
@@ -200,7 +200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="1" max="1" width="52.650000000000006" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -251,13 +251,13 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos, Otros</t>
         </is>
       </c>
       <c r="B6" s="65">
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -291,43 +291,43 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
+          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Infracción A La Ley Penal</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Otros Procedimientos Menores</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Infracción A La Ley Penal</t>
+          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
         </is>
       </c>
       <c r="B13" s="65">
@@ -337,17 +337,17 @@
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
         </is>
       </c>
       <c r="B15" s="65">
@@ -357,31 +357,11 @@
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="inlineStr" r="A17">
-        <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
-        </is>
-      </c>
-      <c r="B17" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="inlineStr" r="A18">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B18" s="65">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
